--- a/P0052/09_FICHAS/N3-FD-General.xlsx
+++ b/P0052/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0052/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="11_7E4E55BF84DCCEE3ED7FF6F99031F45BFA722949" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BEDF9B3-20F7-4D56-8172-FB28EB6B3843}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="11_7E4E55BF84DCCEE3ED7FF6F99031F45BFA722949" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62E1B1F5-121B-49C8-8A3A-BE9324DA7C2E}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="255" windowWidth="10050" windowHeight="7005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -89,19 +89,46 @@
     <t>P0052</t>
   </si>
   <si>
-    <t>R0001</t>
+    <t>PR0005</t>
+  </si>
+  <si>
+    <t>R0003</t>
   </si>
   <si>
     <t>Resultados de muestras análisis H2 - O18 - Waterloo</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto Análisis Isotópicos/Resultados de muestras análisis H2 - O18 - Waterloo.xlsx</t>
+  </si>
+  <si>
+    <t>Producto Análisis Isotópicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivo de excel de resultados de isotopos del producto "Análisis de isótopos en la región de La Mojana", en el marco del proyecto " Caracterización hidrogeológica regional en la región de La Mojana". El archivo contiene los resultados de laboratorio de los isótopos estables Hidrógeno-2 (Deuterio) y Oxígeno-18 para 70 puntos de agua en la región de La Mojana. En el archivo se presenta la línea de tendencia de los datos. Así mismo se presenta la variable de conductividad eléctrica en mS/cm y pH. No se presentan las coordenadas ni descripciones de los puntos, por lo tanto se debe referenciar con el informe de Isotopia. Este archivo es un insumo para el análisis de isotopos estables en estudios de mezclas de agua superficial subterránea, estimaciones de edad del agua, orígenes del agua, entre otros. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base de datos </t>
+  </si>
+  <si>
     <t>xlsx</t>
   </si>
   <si>
-    <t>R0002</t>
+    <t>HIDROGEOLOGÍA</t>
   </si>
   <si>
-    <t>R0003</t>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>DESCONOCIDO</t>
+  </si>
+  <si>
+    <t>Variables: Isótopos estables ( Hidrógeno-2, Oxígeno-18), conductividad electrica (mS/cm), pH</t>
+  </si>
+  <si>
+    <t>Hidrogeología, agua subterránea, interacción agua subterránea y agua superficial, origen del agua, datación, isotopos estables, isotopía, Oxígeno-18, Hidrógeno-2, deuterio, conductividad eléctrica, pH</t>
+  </si>
+  <si>
+    <t>PR0002</t>
   </si>
   <si>
     <t>R0004</t>
@@ -110,7 +137,25 @@
     <t>Mapa_Geologico</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto 4. Metodologia MHC/Mapa_Geologico.pdf</t>
+  </si>
+  <si>
+    <t>Producto 4. Metodologia MHC</t>
+  </si>
+  <si>
+    <t>Archivo pdf que contiene el mapa Geológico de la región de la Mojana en el marco del proyecto " Caracterización hidrogeológica regional en la región de La Mojana". El archivo contiene el mapa a escala 1:250.000, presenta ubicación de contactos y fallas, anticlinales y sinclinales, y capas base de poblaciones, hidrografía, transporte. Presenta la leyenda geológica a partir de la cual se identifican los depósitos  y formaciones geológicas. Superficialmente se reconocen en mayor área los depósitos del periodo cuaternario para los departamentos de Sucre y Córdoba.</t>
+  </si>
+  <si>
+    <t>Mapa</t>
+  </si>
+  <si>
     <t>pdf</t>
+  </si>
+  <si>
+    <t>Variables: Formaciones geológicas</t>
+  </si>
+  <si>
+    <t>Hidrogeología, agua subterránea, interacción agua subterránea y agua superficial, geología, fallas, formaciones geológicas</t>
   </si>
   <si>
     <t>R0005</t>
@@ -119,74 +164,41 @@
     <t>Mapa_Hidrogeológico</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto 4. Metodologia MHC/Mapa_Hidrogeológico.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivo pdf que contiene el mapa Hidrogeológico de la región de la Mojana en el marco del proyecto " Caracterización hidrogeológica regional en la región de La Mojana". El archivo contiene el mapa a escala 1:250.000, presenta la delimitación en superficie de las unidades hidrogeológicas, se presenta en la leyenda la clasificación de acuíferos, acuitardos, acuifugas, y pozos. El mapa también presenta la información de contactos, fallas y estructuras pliegues y la señalización de las formaciones geológicas. En superficie se identifica en mayor proporción Acuíferos de porosidad primaria  de baja productividad para el centro de La Mojana, y acuiferos de porosidad primaria media productividad para la zona este. No se identifican acuíferos con porosidad secundaria. </t>
+  </si>
+  <si>
+    <t>Variables: Unidades hidrogeológicas (ubicación en superficie mapa pdf)</t>
+  </si>
+  <si>
+    <t>Hidrogeología, agua subterránea, interacción agua subterránea y agua superficial, geología, fallas, formaciones geológicas, unidades hidrogeológicas, acuíferos, porosidad primaria, baja productividad, media productividad del acuífero</t>
+  </si>
+  <si>
     <t>R0006</t>
   </si>
   <si>
     <t>Mapa_Muestreo_Isotopos</t>
   </si>
   <si>
-    <t>R0007</t>
-  </si>
-  <si>
-    <t>Tritio resultados</t>
-  </si>
-  <si>
-    <t>R0008</t>
-  </si>
-  <si>
-    <t>R0009</t>
-  </si>
-  <si>
-    <t>R0010</t>
-  </si>
-  <si>
-    <t>R0011</t>
-  </si>
-  <si>
-    <t>R0012</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto 4. Metodologia MHC/Resultados de muestras análisis H2 - O18 - Waterloo.xlsx</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto 6. Informe final de actividades/Anexo I. Resultados de laboratorio Isótopos/Resultados de muestras análisis H2 - O18 - Waterloo.xlsx</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto Análisis Isotópicos/Resultados de muestras análisis H2 - O18 - Waterloo.xlsx</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto 4. Metodologia MHC/Mapa_Geologico.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto 4. Metodologia MHC/Mapa_Hidrogeológico.pdf</t>
-  </si>
-  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto 4. Metodologia MHC/Mapa_Muestreo_Isotopos.pdf</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto 4. Metodologia MHC/Tritio resultados.pdf</t>
+    <t xml:space="preserve">Archivo pdf que contiene el mapa de localización de puntos de muestreo para análisis Isotópicos de Hidrógeno-2, Oxígeno-18 y Tritio (H3), en el marco del proyecto " Caracterización hidrogeológica regional en la región de La Mojana". El archivo contiene el mapa a escala 1:160.000. El mapa presenta la ubicación de muestreo para puntos de agua superficial (2H y 18O), pozos (2H, 18O), y pozos (2H, 18O, 3H). Provee también información hidrológica, como capa de ríos, canales, limites geográficos y de vías. Este mapa permite la ubicación y relación de los puntos con los archivos de resutlados de laboratorio de los isótopos muestreados. </t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto 6. Informe final de actividades/Anexo I. Resultados de laboratorio Isótopos/Tritio resultados.pdf</t>
+    <t xml:space="preserve">Variables: El archivo no contiene variables para la toma de decisiones, pero es un archivo base importante para la identificación de la ubicaciòn de puntos de agua dado que no se tienen archivos geográficos en la carpeta del proyecto. </t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto 6. Informe final de actividades/Mapa_Geologico.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto 6. Informe final de actividades/Mapa_Hidrogeológico.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto 6. Informe final de actividades/Mapa_Muestreo_Isotopos.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0052/02_PRODUCTOS/CDS/TOMO 3/FOLIO-388-R-2015-8100031962/PRODUCTOS MOJANA/Producto Análisis Isotópicos/Tritio resultados.pdf</t>
+    <t>Hidrogeología, agua subterránea, interacción agua subterránea y agua superficial, origen del agua, datación, isotopos estables, isotopía, Oxígeno-18, Hidrógeno-2, deuterio, tritio, 3H</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,22 +214,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF0C769E"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF196B24"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
@@ -226,23 +224,24 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA6A6A6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -315,32 +314,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,200 +683,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P291"/>
+  <dimension ref="A1:P283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="12" width="18" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16" s="9" customFormat="1" ht="29.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="12">
+        <v>2014</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="12">
+        <v>2014</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="J3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="12">
+        <v>2014</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2014</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="L5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -876,27 +975,17 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>41</v>
-      </c>
+    <row r="7" spans="1:16">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="J7" s="5"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -904,55 +993,35 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>43</v>
-      </c>
+    <row r="8" spans="1:16">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="J9" s="5"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -960,27 +1029,17 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>44</v>
-      </c>
+    <row r="10" spans="1:16">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="J10" s="5"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -988,27 +1047,17 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>45</v>
-      </c>
+    <row r="11" spans="1:16">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="J11" s="5"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1016,27 +1065,17 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>46</v>
-      </c>
+    <row r="12" spans="1:16">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="J12" s="5"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1044,27 +1083,17 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>47</v>
-      </c>
+    <row r="13" spans="1:16">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="J13" s="5"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1072,17 +1101,17 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+    <row r="14" spans="1:16">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="11"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1090,17 +1119,17 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+    <row r="15" spans="1:16">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="11"/>
+      <c r="J15" s="5"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1108,17 +1137,17 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+    <row r="16" spans="1:16">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="11"/>
+      <c r="J16" s="5"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1126,17 +1155,17 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+    <row r="17" spans="1:16">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="11"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1144,17 +1173,17 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+    <row r="18" spans="1:16">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="11"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1162,17 +1191,17 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+    <row r="19" spans="1:16">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="11"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1180,17 +1209,17 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+    <row r="20" spans="1:16">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="11"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1198,17 +1227,17 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+    <row r="21" spans="1:16">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="11"/>
+      <c r="J21" s="5"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1216,17 +1245,17 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+    <row r="22" spans="1:16">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="11"/>
+      <c r="J22" s="5"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1234,17 +1263,17 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+    <row r="23" spans="1:16">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="11"/>
+      <c r="J23" s="5"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1252,17 +1281,17 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+    <row r="24" spans="1:16">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="11"/>
+      <c r="J24" s="5"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1270,17 +1299,17 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+    <row r="25" spans="1:16">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="11"/>
+      <c r="J25" s="5"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1288,17 +1317,17 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+    <row r="26" spans="1:16">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="11"/>
+      <c r="J26" s="5"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1306,17 +1335,17 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+    <row r="27" spans="1:16">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="11"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -1324,17 +1353,17 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+    <row r="28" spans="1:16">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="11"/>
+      <c r="J28" s="5"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -1342,17 +1371,17 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
+    <row r="29" spans="1:16">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="11"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -1360,17 +1389,17 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
+    <row r="30" spans="1:16">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="11"/>
+      <c r="J30" s="5"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -1378,17 +1407,17 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+    <row r="31" spans="1:16">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="11"/>
+      <c r="J31" s="5"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -1396,17 +1425,17 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+    <row r="32" spans="1:16">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="11"/>
+      <c r="J32" s="5"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -1414,17 +1443,17 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+    <row r="33" spans="1:16">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="11"/>
+      <c r="J33" s="5"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -1432,17 +1461,17 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+    <row r="34" spans="1:16">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="11"/>
+      <c r="J34" s="5"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -1450,17 +1479,17 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+    <row r="35" spans="1:16">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="11"/>
+      <c r="J35" s="5"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -1468,17 +1497,17 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+    <row r="36" spans="1:16">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="11"/>
+      <c r="J36" s="5"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -1486,17 +1515,17 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
+    <row r="37" spans="1:16">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="11"/>
+      <c r="J37" s="5"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -1504,17 +1533,17 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+    <row r="38" spans="1:16">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="11"/>
+      <c r="J38" s="5"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -1522,17 +1551,17 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+    <row r="39" spans="1:16">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="11"/>
+      <c r="J39" s="5"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -1540,17 +1569,17 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+    <row r="40" spans="1:16">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="11"/>
+      <c r="J40" s="5"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -1558,17 +1587,17 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+    <row r="41" spans="1:16">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="11"/>
+      <c r="J41" s="5"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -1576,17 +1605,17 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
+    <row r="42" spans="1:16">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="11"/>
+      <c r="J42" s="5"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -1594,17 +1623,17 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
+    <row r="43" spans="1:16">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="11"/>
+      <c r="J43" s="5"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -1612,17 +1641,17 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
+    <row r="44" spans="1:16">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="11"/>
+      <c r="J44" s="5"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -1630,17 +1659,17 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
+    <row r="45" spans="1:16">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="11"/>
+      <c r="J45" s="5"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -1648,17 +1677,17 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
+    <row r="46" spans="1:16">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="11"/>
+      <c r="J46" s="5"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -1666,17 +1695,17 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
+    <row r="47" spans="1:16">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="11"/>
+      <c r="J47" s="5"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -1684,17 +1713,17 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
+    <row r="48" spans="1:16">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="11"/>
+      <c r="J48" s="5"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -1702,17 +1731,17 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
+    <row r="49" spans="1:16">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="11"/>
+      <c r="J49" s="5"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -1720,17 +1749,17 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
+    <row r="50" spans="1:16">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="11"/>
+      <c r="J50" s="5"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -1738,17 +1767,17 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
+    <row r="51" spans="1:16">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="11"/>
+      <c r="J51" s="5"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -1756,17 +1785,17 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
+    <row r="52" spans="1:16">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="11"/>
+      <c r="J52" s="5"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -1774,17 +1803,17 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
+    <row r="53" spans="1:16">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="11"/>
+      <c r="J53" s="5"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -1792,17 +1821,17 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
+    <row r="54" spans="1:16">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="11"/>
+      <c r="J54" s="5"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -1810,17 +1839,17 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
+    <row r="55" spans="1:16">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="11"/>
+      <c r="J55" s="5"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -1828,17 +1857,17 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
+    <row r="56" spans="1:16">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="11"/>
+      <c r="J56" s="5"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -1846,17 +1875,17 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
+    <row r="57" spans="1:16">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="11"/>
+      <c r="J57" s="5"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -1864,17 +1893,17 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
+    <row r="58" spans="1:16">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="11"/>
+      <c r="J58" s="5"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -1882,17 +1911,17 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
+    <row r="59" spans="1:16">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="11"/>
+      <c r="J59" s="5"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -1900,17 +1929,17 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
+    <row r="60" spans="1:16">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="11"/>
+      <c r="J60" s="5"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -1918,17 +1947,17 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
+    <row r="61" spans="1:16">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="11"/>
+      <c r="J61" s="5"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -1936,17 +1965,17 @@
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
+    <row r="62" spans="1:16">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="11"/>
+      <c r="J62" s="5"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -1954,17 +1983,17 @@
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
+    <row r="63" spans="1:16">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="11"/>
+      <c r="J63" s="5"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -1972,17 +2001,17 @@
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
+    <row r="64" spans="1:16">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="11"/>
+      <c r="J64" s="5"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -1990,17 +2019,17 @@
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
+    <row r="65" spans="1:16">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="11"/>
+      <c r="J65" s="5"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -2008,17 +2037,17 @@
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
+    <row r="66" spans="1:16">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="11"/>
+      <c r="J66" s="5"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -2026,17 +2055,17 @@
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
+    <row r="67" spans="1:16">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="11"/>
+      <c r="J67" s="5"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -2044,17 +2073,17 @@
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
+    <row r="68" spans="1:16">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="11"/>
+      <c r="J68" s="5"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -2062,17 +2091,17 @@
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
+    <row r="69" spans="1:16">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="11"/>
+      <c r="J69" s="5"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -2080,17 +2109,17 @@
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
+    <row r="70" spans="1:16">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="11"/>
+      <c r="J70" s="5"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -2098,17 +2127,17 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
+    <row r="71" spans="1:16">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="11"/>
+      <c r="J71" s="5"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -2116,17 +2145,17 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
+    <row r="72" spans="1:16">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="11"/>
+      <c r="J72" s="5"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -2134,17 +2163,17 @@
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
+    <row r="73" spans="1:16">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="11"/>
+      <c r="J73" s="5"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -2152,17 +2181,17 @@
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
+    <row r="74" spans="1:16">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="11"/>
+      <c r="J74" s="5"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -2170,17 +2199,17 @@
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
+    <row r="75" spans="1:16">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="11"/>
+      <c r="J75" s="5"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
@@ -2188,17 +2217,17 @@
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
+    <row r="76" spans="1:16">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="11"/>
+      <c r="J76" s="5"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
@@ -2206,17 +2235,17 @@
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
+    <row r="77" spans="1:16">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="11"/>
+      <c r="J77" s="5"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
@@ -2224,17 +2253,17 @@
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
+    <row r="78" spans="1:16">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="11"/>
+      <c r="J78" s="5"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
@@ -2242,17 +2271,17 @@
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
+    <row r="79" spans="1:16">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="11"/>
+      <c r="J79" s="5"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -2260,17 +2289,17 @@
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
+    <row r="80" spans="1:16">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="11"/>
+      <c r="J80" s="5"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
@@ -2278,17 +2307,17 @@
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
+    <row r="81" spans="1:16">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="11"/>
+      <c r="J81" s="5"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
@@ -2296,17 +2325,17 @@
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
+    <row r="82" spans="1:16">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="11"/>
+      <c r="J82" s="5"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
@@ -2314,17 +2343,17 @@
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
+    <row r="83" spans="1:16">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="11"/>
+      <c r="J83" s="5"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
@@ -2332,17 +2361,17 @@
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
+    <row r="84" spans="1:16">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="11"/>
+      <c r="J84" s="5"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
@@ -2350,17 +2379,17 @@
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
+    <row r="85" spans="1:16">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="11"/>
+      <c r="J85" s="5"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
@@ -2368,17 +2397,17 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
+    <row r="86" spans="1:16">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="11"/>
+      <c r="J86" s="5"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
@@ -2386,17 +2415,17 @@
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
+    <row r="87" spans="1:16">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="11"/>
+      <c r="J87" s="5"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
@@ -2404,17 +2433,17 @@
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
+    <row r="88" spans="1:16">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="11"/>
+      <c r="J88" s="5"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
@@ -2422,17 +2451,17 @@
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
+    <row r="89" spans="1:16">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="11"/>
+      <c r="J89" s="5"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
@@ -2440,17 +2469,17 @@
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
+    <row r="90" spans="1:16">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="11"/>
+      <c r="J90" s="5"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
@@ -2458,17 +2487,17 @@
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
+    <row r="91" spans="1:16">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="11"/>
+      <c r="J91" s="5"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
@@ -2476,17 +2505,17 @@
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
+    <row r="92" spans="1:16">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="11"/>
+      <c r="J92" s="5"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
@@ -2494,17 +2523,17 @@
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
+    <row r="93" spans="1:16">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="11"/>
+      <c r="J93" s="5"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
@@ -2512,17 +2541,17 @@
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
+    <row r="94" spans="1:16">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="11"/>
+      <c r="J94" s="5"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
@@ -2530,17 +2559,17 @@
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
+    <row r="95" spans="1:16">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="11"/>
+      <c r="J95" s="5"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
@@ -2548,17 +2577,17 @@
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
+    <row r="96" spans="1:16">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="11"/>
+      <c r="J96" s="5"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
@@ -2566,17 +2595,17 @@
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
+    <row r="97" spans="1:16">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-      <c r="J97" s="11"/>
+      <c r="J97" s="5"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
@@ -2584,17 +2613,17 @@
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
+    <row r="98" spans="1:16">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="11"/>
+      <c r="J98" s="5"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
@@ -2602,17 +2631,17 @@
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
+    <row r="99" spans="1:16">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="11"/>
+      <c r="J99" s="5"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
@@ -2620,17 +2649,17 @@
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
+    <row r="100" spans="1:16">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="11"/>
+      <c r="J100" s="5"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
@@ -2638,17 +2667,17 @@
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
+    <row r="101" spans="1:16">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-      <c r="J101" s="11"/>
+      <c r="J101" s="5"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
@@ -2656,17 +2685,17 @@
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
+    <row r="102" spans="1:16">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="J102" s="11"/>
+      <c r="J102" s="5"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
@@ -2674,17 +2703,17 @@
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
+    <row r="103" spans="1:16">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-      <c r="J103" s="11"/>
+      <c r="J103" s="5"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
@@ -2692,17 +2721,17 @@
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
+    <row r="104" spans="1:16">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-      <c r="J104" s="11"/>
+      <c r="J104" s="5"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
@@ -2710,17 +2739,17 @@
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
+    <row r="105" spans="1:16">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-      <c r="J105" s="11"/>
+      <c r="J105" s="5"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
@@ -2728,17 +2757,17 @@
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
+    <row r="106" spans="1:16">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-      <c r="J106" s="11"/>
+      <c r="J106" s="5"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
@@ -2746,17 +2775,17 @@
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
+    <row r="107" spans="1:16">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-      <c r="J107" s="11"/>
+      <c r="J107" s="5"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
@@ -2764,17 +2793,17 @@
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
+    <row r="108" spans="1:16">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-      <c r="J108" s="11"/>
+      <c r="J108" s="5"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
@@ -2782,17 +2811,17 @@
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
+    <row r="109" spans="1:16">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-      <c r="J109" s="11"/>
+      <c r="J109" s="5"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
@@ -2800,17 +2829,17 @@
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
+    <row r="110" spans="1:16">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-      <c r="J110" s="11"/>
+      <c r="J110" s="5"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
@@ -2818,17 +2847,17 @@
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
+    <row r="111" spans="1:16">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-      <c r="J111" s="11"/>
+      <c r="J111" s="5"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
@@ -2836,17 +2865,17 @@
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
+    <row r="112" spans="1:16">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-      <c r="J112" s="11"/>
+      <c r="J112" s="5"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
@@ -2854,17 +2883,17 @@
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
+    <row r="113" spans="1:16">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-      <c r="J113" s="11"/>
+      <c r="J113" s="5"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
@@ -2872,17 +2901,17 @@
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
+    <row r="114" spans="1:16">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-      <c r="J114" s="11"/>
+      <c r="J114" s="5"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
@@ -2890,17 +2919,17 @@
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
+    <row r="115" spans="1:16">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-      <c r="J115" s="11"/>
+      <c r="J115" s="5"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
@@ -2908,17 +2937,17 @@
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="11"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
+    <row r="116" spans="1:16">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-      <c r="J116" s="11"/>
+      <c r="J116" s="5"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
@@ -2926,17 +2955,17 @@
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
+    <row r="117" spans="1:16">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-      <c r="J117" s="11"/>
+      <c r="J117" s="5"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
@@ -2944,17 +2973,17 @@
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
+    <row r="118" spans="1:16">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-      <c r="J118" s="11"/>
+      <c r="J118" s="5"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
@@ -2962,17 +2991,17 @@
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="11"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
+    <row r="119" spans="1:16">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-      <c r="J119" s="11"/>
+      <c r="J119" s="5"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
@@ -2980,17 +3009,17 @@
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
+    <row r="120" spans="1:16">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-      <c r="J120" s="11"/>
+      <c r="J120" s="5"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
@@ -2998,17 +3027,17 @@
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" s="11"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
+    <row r="121" spans="1:16">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-      <c r="J121" s="11"/>
+      <c r="J121" s="5"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
@@ -3016,17 +3045,17 @@
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
+    <row r="122" spans="1:16">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-      <c r="J122" s="11"/>
+      <c r="J122" s="5"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
@@ -3034,17 +3063,17 @@
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" s="11"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
+    <row r="123" spans="1:16">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-      <c r="J123" s="11"/>
+      <c r="J123" s="5"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
@@ -3052,17 +3081,17 @@
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="11"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
+    <row r="124" spans="1:16">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-      <c r="J124" s="11"/>
+      <c r="J124" s="5"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
@@ -3070,17 +3099,17 @@
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="11"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11"/>
+    <row r="125" spans="1:16">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
-      <c r="J125" s="11"/>
+      <c r="J125" s="5"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
@@ -3088,17 +3117,17 @@
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="11"/>
-      <c r="E126" s="11"/>
+    <row r="126" spans="1:16">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-      <c r="J126" s="11"/>
+      <c r="J126" s="5"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
@@ -3106,17 +3135,17 @@
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="11"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
+    <row r="127" spans="1:16">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
-      <c r="J127" s="11"/>
+      <c r="J127" s="5"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
@@ -3124,17 +3153,17 @@
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="11"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
+    <row r="128" spans="1:16">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-      <c r="J128" s="11"/>
+      <c r="J128" s="5"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
@@ -3142,17 +3171,17 @@
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A129" s="11"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
+    <row r="129" spans="1:16">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-      <c r="J129" s="11"/>
+      <c r="J129" s="5"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
@@ -3160,17 +3189,17 @@
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" s="11"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
+    <row r="130" spans="1:16">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="11"/>
+      <c r="J130" s="5"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
@@ -3178,17 +3207,17 @@
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="11"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="11"/>
+    <row r="131" spans="1:16">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-      <c r="J131" s="11"/>
+      <c r="J131" s="5"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
@@ -3196,17 +3225,17 @@
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
-      <c r="E132" s="11"/>
+    <row r="132" spans="1:16">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-      <c r="J132" s="11"/>
+      <c r="J132" s="5"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
@@ -3214,17 +3243,17 @@
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A133" s="11"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
+    <row r="133" spans="1:16">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-      <c r="J133" s="11"/>
+      <c r="J133" s="5"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
@@ -3232,17 +3261,17 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A134" s="11"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
+    <row r="134" spans="1:16">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-      <c r="J134" s="11"/>
+      <c r="J134" s="5"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
@@ -3250,17 +3279,17 @@
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135" s="11"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="11"/>
+    <row r="135" spans="1:16">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
-      <c r="J135" s="11"/>
+      <c r="J135" s="5"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
@@ -3268,17 +3297,17 @@
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A136" s="11"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
+    <row r="136" spans="1:16">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-      <c r="J136" s="11"/>
+      <c r="J136" s="5"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
@@ -3286,17 +3315,17 @@
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137" s="11"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
-      <c r="E137" s="11"/>
+    <row r="137" spans="1:16">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
-      <c r="J137" s="11"/>
+      <c r="J137" s="5"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
@@ -3304,17 +3333,17 @@
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11"/>
+    <row r="138" spans="1:16">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-      <c r="J138" s="11"/>
+      <c r="J138" s="5"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
@@ -3322,17 +3351,17 @@
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" s="11"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="11"/>
+    <row r="139" spans="1:16">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
-      <c r="J139" s="11"/>
+      <c r="J139" s="5"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
@@ -3340,17 +3369,17 @@
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140" s="11"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11"/>
+    <row r="140" spans="1:16">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-      <c r="J140" s="11"/>
+      <c r="J140" s="5"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
@@ -3358,17 +3387,17 @@
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A141" s="11"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
-      <c r="E141" s="11"/>
+    <row r="141" spans="1:16">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-      <c r="J141" s="11"/>
+      <c r="J141" s="5"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
@@ -3376,17 +3405,17 @@
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="11"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
+    <row r="142" spans="1:16">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-      <c r="J142" s="11"/>
+      <c r="J142" s="5"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
@@ -3394,17 +3423,17 @@
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="11"/>
+    <row r="143" spans="1:16">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-      <c r="J143" s="11"/>
+      <c r="J143" s="5"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
@@ -3412,17 +3441,17 @@
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="11"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11"/>
+    <row r="144" spans="1:16">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-      <c r="J144" s="11"/>
+      <c r="J144" s="5"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
@@ -3430,17 +3459,17 @@
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="11"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
+    <row r="145" spans="1:16">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-      <c r="J145" s="11"/>
+      <c r="J145" s="5"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
@@ -3448,17 +3477,17 @@
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="11"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11"/>
+    <row r="146" spans="1:16">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
-      <c r="J146" s="11"/>
+      <c r="J146" s="5"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
@@ -3466,17 +3495,17 @@
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="11"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
-      <c r="E147" s="11"/>
+    <row r="147" spans="1:16">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
-      <c r="J147" s="11"/>
+      <c r="J147" s="5"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
@@ -3484,17 +3513,17 @@
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="11"/>
-      <c r="B148" s="11"/>
-      <c r="C148" s="11"/>
-      <c r="D148" s="11"/>
-      <c r="E148" s="11"/>
+    <row r="148" spans="1:16">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
-      <c r="J148" s="11"/>
+      <c r="J148" s="5"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
@@ -3502,17 +3531,17 @@
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="11"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="11"/>
-      <c r="D149" s="11"/>
-      <c r="E149" s="11"/>
+    <row r="149" spans="1:16">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
-      <c r="J149" s="11"/>
+      <c r="J149" s="5"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
@@ -3520,17 +3549,17 @@
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="11"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
-      <c r="E150" s="11"/>
+    <row r="150" spans="1:16">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
-      <c r="J150" s="11"/>
+      <c r="J150" s="5"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
@@ -3538,17 +3567,17 @@
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" s="11"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
-      <c r="E151" s="11"/>
+    <row r="151" spans="1:16">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-      <c r="J151" s="11"/>
+      <c r="J151" s="5"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
@@ -3556,17 +3585,17 @@
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" s="11"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
-      <c r="E152" s="11"/>
+    <row r="152" spans="1:16">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-      <c r="J152" s="11"/>
+      <c r="J152" s="5"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
@@ -3574,17 +3603,17 @@
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A153" s="11"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="11"/>
-      <c r="D153" s="11"/>
-      <c r="E153" s="11"/>
+    <row r="153" spans="1:16">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-      <c r="J153" s="11"/>
+      <c r="J153" s="5"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
@@ -3592,17 +3621,17 @@
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A154" s="11"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
-      <c r="E154" s="11"/>
+    <row r="154" spans="1:16">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
-      <c r="J154" s="11"/>
+      <c r="J154" s="5"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
@@ -3610,17 +3639,17 @@
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A155" s="11"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
-      <c r="E155" s="11"/>
+    <row r="155" spans="1:16">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
-      <c r="J155" s="11"/>
+      <c r="J155" s="5"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
@@ -3628,17 +3657,17 @@
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A156" s="11"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
-      <c r="E156" s="11"/>
+    <row r="156" spans="1:16">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
-      <c r="J156" s="11"/>
+      <c r="J156" s="5"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
@@ -3646,17 +3675,17 @@
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A157" s="11"/>
-      <c r="B157" s="11"/>
-      <c r="C157" s="11"/>
-      <c r="D157" s="11"/>
-      <c r="E157" s="11"/>
+    <row r="157" spans="1:16">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
-      <c r="J157" s="11"/>
+      <c r="J157" s="5"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
@@ -3664,17 +3693,17 @@
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A158" s="11"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="11"/>
+    <row r="158" spans="1:16">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
-      <c r="J158" s="11"/>
+      <c r="J158" s="5"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
@@ -3682,17 +3711,17 @@
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" s="11"/>
-      <c r="B159" s="11"/>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
-      <c r="E159" s="11"/>
+    <row r="159" spans="1:16">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
-      <c r="J159" s="11"/>
+      <c r="J159" s="5"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
@@ -3700,17 +3729,17 @@
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
-      <c r="E160" s="11"/>
+    <row r="160" spans="1:16">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-      <c r="J160" s="11"/>
+      <c r="J160" s="5"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
@@ -3718,17 +3747,17 @@
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A161" s="11"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="11"/>
-      <c r="D161" s="11"/>
-      <c r="E161" s="11"/>
+    <row r="161" spans="1:16">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
-      <c r="J161" s="11"/>
+      <c r="J161" s="5"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
@@ -3736,17 +3765,17 @@
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A162" s="11"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="11"/>
-      <c r="D162" s="11"/>
-      <c r="E162" s="11"/>
+    <row r="162" spans="1:16">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-      <c r="J162" s="11"/>
+      <c r="J162" s="5"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
@@ -3754,17 +3783,17 @@
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A163" s="11"/>
-      <c r="B163" s="11"/>
-      <c r="C163" s="11"/>
-      <c r="D163" s="11"/>
-      <c r="E163" s="11"/>
+    <row r="163" spans="1:16">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
-      <c r="J163" s="11"/>
+      <c r="J163" s="5"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
@@ -3772,17 +3801,17 @@
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A164" s="11"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="11"/>
-      <c r="D164" s="11"/>
-      <c r="E164" s="11"/>
+    <row r="164" spans="1:16">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-      <c r="J164" s="11"/>
+      <c r="J164" s="5"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
@@ -3790,17 +3819,17 @@
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A165" s="11"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
-      <c r="E165" s="11"/>
+    <row r="165" spans="1:16">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
-      <c r="J165" s="11"/>
+      <c r="J165" s="5"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
@@ -3808,17 +3837,17 @@
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A166" s="11"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="11"/>
-      <c r="D166" s="11"/>
-      <c r="E166" s="11"/>
+    <row r="166" spans="1:16">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
-      <c r="J166" s="11"/>
+      <c r="J166" s="5"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
@@ -3826,17 +3855,17 @@
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A167" s="11"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="11"/>
-      <c r="D167" s="11"/>
-      <c r="E167" s="11"/>
+    <row r="167" spans="1:16">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
-      <c r="J167" s="11"/>
+      <c r="J167" s="5"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
@@ -3844,17 +3873,17 @@
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A168" s="11"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="11"/>
-      <c r="D168" s="11"/>
-      <c r="E168" s="11"/>
+    <row r="168" spans="1:16">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-      <c r="J168" s="11"/>
+      <c r="J168" s="5"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
@@ -3862,17 +3891,17 @@
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A169" s="11"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
-      <c r="D169" s="11"/>
-      <c r="E169" s="11"/>
+    <row r="169" spans="1:16">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
-      <c r="J169" s="11"/>
+      <c r="J169" s="5"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
@@ -3880,17 +3909,17 @@
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
-      <c r="E170" s="11"/>
+    <row r="170" spans="1:16">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
-      <c r="J170" s="11"/>
+      <c r="J170" s="5"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
@@ -3898,17 +3927,17 @@
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A171" s="11"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="11"/>
-      <c r="D171" s="11"/>
-      <c r="E171" s="11"/>
+    <row r="171" spans="1:16">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
-      <c r="J171" s="11"/>
+      <c r="J171" s="5"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
@@ -3916,17 +3945,17 @@
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A172" s="11"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="11"/>
-      <c r="D172" s="11"/>
-      <c r="E172" s="11"/>
+    <row r="172" spans="1:16">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
-      <c r="J172" s="11"/>
+      <c r="J172" s="5"/>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
@@ -3934,17 +3963,17 @@
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A173" s="11"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="11"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="11"/>
+    <row r="173" spans="1:16">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
-      <c r="J173" s="11"/>
+      <c r="J173" s="5"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
@@ -3952,17 +3981,17 @@
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A174" s="11"/>
-      <c r="B174" s="11"/>
-      <c r="C174" s="11"/>
-      <c r="D174" s="11"/>
-      <c r="E174" s="11"/>
+    <row r="174" spans="1:16">
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
-      <c r="J174" s="11"/>
+      <c r="J174" s="5"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
@@ -3970,17 +3999,17 @@
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A175" s="11"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
-      <c r="E175" s="11"/>
+    <row r="175" spans="1:16">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
-      <c r="J175" s="11"/>
+      <c r="J175" s="5"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
@@ -3988,17 +4017,17 @@
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A176" s="11"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
-      <c r="E176" s="11"/>
+    <row r="176" spans="1:16">
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-      <c r="J176" s="11"/>
+      <c r="J176" s="5"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
@@ -4006,17 +4035,17 @@
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A177" s="11"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="11"/>
-      <c r="D177" s="11"/>
-      <c r="E177" s="11"/>
+    <row r="177" spans="1:16">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
-      <c r="J177" s="11"/>
+      <c r="J177" s="5"/>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
@@ -4024,17 +4053,17 @@
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A178" s="11"/>
-      <c r="B178" s="11"/>
-      <c r="C178" s="11"/>
-      <c r="D178" s="11"/>
-      <c r="E178" s="11"/>
+    <row r="178" spans="1:16">
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-      <c r="J178" s="11"/>
+      <c r="J178" s="5"/>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
@@ -4042,17 +4071,17 @@
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A179" s="11"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
-      <c r="E179" s="11"/>
+    <row r="179" spans="1:16">
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
-      <c r="J179" s="11"/>
+      <c r="J179" s="5"/>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
@@ -4060,17 +4089,17 @@
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A180" s="11"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
-      <c r="E180" s="11"/>
+    <row r="180" spans="1:16">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
-      <c r="J180" s="11"/>
+      <c r="J180" s="5"/>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
@@ -4078,17 +4107,17 @@
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A181" s="11"/>
-      <c r="B181" s="11"/>
-      <c r="C181" s="11"/>
-      <c r="D181" s="11"/>
-      <c r="E181" s="11"/>
+    <row r="181" spans="1:16">
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
-      <c r="J181" s="11"/>
+      <c r="J181" s="5"/>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
@@ -4096,17 +4125,17 @@
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A182" s="11"/>
-      <c r="B182" s="11"/>
-      <c r="C182" s="11"/>
-      <c r="D182" s="11"/>
-      <c r="E182" s="11"/>
+    <row r="182" spans="1:16">
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
-      <c r="J182" s="11"/>
+      <c r="J182" s="5"/>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
@@ -4114,17 +4143,17 @@
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A183" s="11"/>
-      <c r="B183" s="11"/>
-      <c r="C183" s="11"/>
-      <c r="D183" s="11"/>
-      <c r="E183" s="11"/>
+    <row r="183" spans="1:16">
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
-      <c r="J183" s="11"/>
+      <c r="J183" s="5"/>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
@@ -4132,17 +4161,17 @@
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A184" s="11"/>
-      <c r="B184" s="11"/>
-      <c r="C184" s="11"/>
-      <c r="D184" s="11"/>
-      <c r="E184" s="11"/>
+    <row r="184" spans="1:16">
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
-      <c r="J184" s="11"/>
+      <c r="J184" s="5"/>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
@@ -4150,17 +4179,17 @@
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A185" s="11"/>
-      <c r="B185" s="11"/>
-      <c r="C185" s="11"/>
-      <c r="D185" s="11"/>
-      <c r="E185" s="11"/>
+    <row r="185" spans="1:16">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
-      <c r="J185" s="11"/>
+      <c r="J185" s="5"/>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
@@ -4168,17 +4197,17 @@
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A186" s="11"/>
-      <c r="B186" s="11"/>
-      <c r="C186" s="11"/>
-      <c r="D186" s="11"/>
-      <c r="E186" s="11"/>
+    <row r="186" spans="1:16">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
-      <c r="J186" s="11"/>
+      <c r="J186" s="5"/>
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
@@ -4186,17 +4215,17 @@
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A187" s="11"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="11"/>
-      <c r="D187" s="11"/>
-      <c r="E187" s="11"/>
+    <row r="187" spans="1:16">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
-      <c r="J187" s="11"/>
+      <c r="J187" s="5"/>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
@@ -4204,17 +4233,17 @@
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A188" s="11"/>
-      <c r="B188" s="11"/>
-      <c r="C188" s="11"/>
-      <c r="D188" s="11"/>
-      <c r="E188" s="11"/>
+    <row r="188" spans="1:16">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
-      <c r="J188" s="11"/>
+      <c r="J188" s="5"/>
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
@@ -4222,17 +4251,17 @@
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A189" s="11"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="11"/>
-      <c r="D189" s="11"/>
-      <c r="E189" s="11"/>
+    <row r="189" spans="1:16">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
-      <c r="J189" s="11"/>
+      <c r="J189" s="5"/>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
@@ -4240,17 +4269,17 @@
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A190" s="11"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="11"/>
-      <c r="D190" s="11"/>
-      <c r="E190" s="11"/>
+    <row r="190" spans="1:16">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
-      <c r="J190" s="11"/>
+      <c r="J190" s="5"/>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
@@ -4258,17 +4287,17 @@
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A191" s="11"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="11"/>
-      <c r="D191" s="11"/>
-      <c r="E191" s="11"/>
+    <row r="191" spans="1:16">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
-      <c r="J191" s="11"/>
+      <c r="J191" s="5"/>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
@@ -4276,17 +4305,17 @@
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A192" s="11"/>
-      <c r="B192" s="11"/>
-      <c r="C192" s="11"/>
-      <c r="D192" s="11"/>
-      <c r="E192" s="11"/>
+    <row r="192" spans="1:16">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
-      <c r="J192" s="11"/>
+      <c r="J192" s="5"/>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
@@ -4294,17 +4323,17 @@
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A193" s="11"/>
-      <c r="B193" s="11"/>
-      <c r="C193" s="11"/>
-      <c r="D193" s="11"/>
-      <c r="E193" s="11"/>
+    <row r="193" spans="1:16">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
-      <c r="J193" s="11"/>
+      <c r="J193" s="5"/>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
@@ -4312,17 +4341,17 @@
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A194" s="11"/>
-      <c r="B194" s="11"/>
-      <c r="C194" s="11"/>
-      <c r="D194" s="11"/>
-      <c r="E194" s="11"/>
+    <row r="194" spans="1:16">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
-      <c r="J194" s="11"/>
+      <c r="J194" s="5"/>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
@@ -4330,17 +4359,17 @@
       <c r="O194" s="1"/>
       <c r="P194" s="1"/>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A195" s="11"/>
-      <c r="B195" s="11"/>
-      <c r="C195" s="11"/>
-      <c r="D195" s="11"/>
-      <c r="E195" s="11"/>
+    <row r="195" spans="1:16">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
-      <c r="J195" s="11"/>
+      <c r="J195" s="5"/>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
@@ -4348,17 +4377,17 @@
       <c r="O195" s="1"/>
       <c r="P195" s="1"/>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A196" s="11"/>
-      <c r="B196" s="11"/>
-      <c r="C196" s="11"/>
-      <c r="D196" s="11"/>
-      <c r="E196" s="11"/>
+    <row r="196" spans="1:16">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
-      <c r="J196" s="11"/>
+      <c r="J196" s="5"/>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
@@ -4366,17 +4395,17 @@
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A197" s="11"/>
-      <c r="B197" s="11"/>
-      <c r="C197" s="11"/>
-      <c r="D197" s="11"/>
-      <c r="E197" s="11"/>
+    <row r="197" spans="1:16">
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
-      <c r="J197" s="11"/>
+      <c r="J197" s="5"/>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
@@ -4384,17 +4413,17 @@
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A198" s="11"/>
-      <c r="B198" s="11"/>
-      <c r="C198" s="11"/>
-      <c r="D198" s="11"/>
-      <c r="E198" s="11"/>
+    <row r="198" spans="1:16">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
-      <c r="J198" s="11"/>
+      <c r="J198" s="5"/>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
@@ -4402,17 +4431,17 @@
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A199" s="11"/>
-      <c r="B199" s="11"/>
-      <c r="C199" s="11"/>
-      <c r="D199" s="11"/>
-      <c r="E199" s="11"/>
+    <row r="199" spans="1:16">
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
-      <c r="J199" s="11"/>
+      <c r="J199" s="5"/>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
@@ -4420,17 +4449,17 @@
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A200" s="11"/>
-      <c r="B200" s="11"/>
-      <c r="C200" s="11"/>
-      <c r="D200" s="11"/>
-      <c r="E200" s="11"/>
+    <row r="200" spans="1:16">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
-      <c r="J200" s="11"/>
+      <c r="J200" s="5"/>
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
@@ -4438,17 +4467,17 @@
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A201" s="11"/>
-      <c r="B201" s="11"/>
-      <c r="C201" s="11"/>
-      <c r="D201" s="11"/>
-      <c r="E201" s="11"/>
+    <row r="201" spans="1:16">
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
-      <c r="J201" s="11"/>
+      <c r="J201" s="5"/>
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
@@ -4456,17 +4485,17 @@
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A202" s="11"/>
-      <c r="B202" s="11"/>
-      <c r="C202" s="11"/>
-      <c r="D202" s="11"/>
-      <c r="E202" s="11"/>
+    <row r="202" spans="1:16">
+      <c r="A202" s="5"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
-      <c r="J202" s="11"/>
+      <c r="J202" s="5"/>
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
@@ -4474,17 +4503,17 @@
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A203" s="11"/>
-      <c r="B203" s="11"/>
-      <c r="C203" s="11"/>
-      <c r="D203" s="11"/>
-      <c r="E203" s="11"/>
+    <row r="203" spans="1:16">
+      <c r="A203" s="5"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
-      <c r="J203" s="11"/>
+      <c r="J203" s="5"/>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
       <c r="M203" s="1"/>
@@ -4492,17 +4521,17 @@
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A204" s="11"/>
-      <c r="B204" s="11"/>
-      <c r="C204" s="11"/>
-      <c r="D204" s="11"/>
-      <c r="E204" s="11"/>
+    <row r="204" spans="1:16">
+      <c r="A204" s="5"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
-      <c r="J204" s="11"/>
+      <c r="J204" s="5"/>
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
@@ -4510,17 +4539,17 @@
       <c r="O204" s="1"/>
       <c r="P204" s="1"/>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A205" s="11"/>
-      <c r="B205" s="11"/>
-      <c r="C205" s="11"/>
-      <c r="D205" s="11"/>
-      <c r="E205" s="11"/>
+    <row r="205" spans="1:16">
+      <c r="A205" s="5"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
-      <c r="J205" s="11"/>
+      <c r="J205" s="5"/>
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
@@ -4528,17 +4557,17 @@
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A206" s="11"/>
-      <c r="B206" s="11"/>
-      <c r="C206" s="11"/>
-      <c r="D206" s="11"/>
-      <c r="E206" s="11"/>
+    <row r="206" spans="1:16">
+      <c r="A206" s="5"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
-      <c r="J206" s="11"/>
+      <c r="J206" s="5"/>
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
       <c r="M206" s="1"/>
@@ -4546,17 +4575,17 @@
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A207" s="11"/>
-      <c r="B207" s="11"/>
-      <c r="C207" s="11"/>
-      <c r="D207" s="11"/>
-      <c r="E207" s="11"/>
+    <row r="207" spans="1:16">
+      <c r="A207" s="5"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
-      <c r="J207" s="11"/>
+      <c r="J207" s="5"/>
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
       <c r="M207" s="1"/>
@@ -4564,17 +4593,17 @@
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A208" s="11"/>
-      <c r="B208" s="11"/>
-      <c r="C208" s="11"/>
-      <c r="D208" s="11"/>
-      <c r="E208" s="11"/>
+    <row r="208" spans="1:16">
+      <c r="A208" s="5"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
-      <c r="J208" s="11"/>
+      <c r="J208" s="5"/>
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
       <c r="M208" s="1"/>
@@ -4582,17 +4611,17 @@
       <c r="O208" s="1"/>
       <c r="P208" s="1"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A209" s="11"/>
-      <c r="B209" s="11"/>
-      <c r="C209" s="11"/>
-      <c r="D209" s="11"/>
-      <c r="E209" s="11"/>
+    <row r="209" spans="1:16">
+      <c r="A209" s="5"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
-      <c r="J209" s="11"/>
+      <c r="J209" s="5"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
       <c r="M209" s="1"/>
@@ -4600,17 +4629,17 @@
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A210" s="11"/>
-      <c r="B210" s="11"/>
-      <c r="C210" s="11"/>
-      <c r="D210" s="11"/>
-      <c r="E210" s="11"/>
+    <row r="210" spans="1:16">
+      <c r="A210" s="5"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
-      <c r="J210" s="11"/>
+      <c r="J210" s="5"/>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
       <c r="M210" s="1"/>
@@ -4618,17 +4647,17 @@
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A211" s="11"/>
-      <c r="B211" s="11"/>
-      <c r="C211" s="11"/>
-      <c r="D211" s="11"/>
-      <c r="E211" s="11"/>
+    <row r="211" spans="1:16">
+      <c r="A211" s="5"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
-      <c r="J211" s="11"/>
+      <c r="J211" s="5"/>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
@@ -4636,17 +4665,17 @@
       <c r="O211" s="1"/>
       <c r="P211" s="1"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A212" s="11"/>
-      <c r="B212" s="11"/>
-      <c r="C212" s="11"/>
-      <c r="D212" s="11"/>
-      <c r="E212" s="11"/>
+    <row r="212" spans="1:16">
+      <c r="A212" s="5"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
-      <c r="J212" s="11"/>
+      <c r="J212" s="5"/>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
       <c r="M212" s="1"/>
@@ -4654,17 +4683,17 @@
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A213" s="11"/>
-      <c r="B213" s="11"/>
-      <c r="C213" s="11"/>
-      <c r="D213" s="11"/>
-      <c r="E213" s="11"/>
+    <row r="213" spans="1:16">
+      <c r="A213" s="5"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
-      <c r="J213" s="11"/>
+      <c r="J213" s="5"/>
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
       <c r="M213" s="1"/>
@@ -4672,17 +4701,17 @@
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A214" s="11"/>
-      <c r="B214" s="11"/>
-      <c r="C214" s="11"/>
-      <c r="D214" s="11"/>
-      <c r="E214" s="11"/>
+    <row r="214" spans="1:16">
+      <c r="A214" s="5"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
-      <c r="J214" s="11"/>
+      <c r="J214" s="5"/>
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
       <c r="M214" s="1"/>
@@ -4690,17 +4719,17 @@
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A215" s="11"/>
-      <c r="B215" s="11"/>
-      <c r="C215" s="11"/>
-      <c r="D215" s="11"/>
-      <c r="E215" s="11"/>
+    <row r="215" spans="1:16">
+      <c r="A215" s="5"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
-      <c r="J215" s="11"/>
+      <c r="J215" s="5"/>
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
       <c r="M215" s="1"/>
@@ -4708,17 +4737,17 @@
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A216" s="11"/>
-      <c r="B216" s="11"/>
-      <c r="C216" s="11"/>
-      <c r="D216" s="11"/>
-      <c r="E216" s="11"/>
+    <row r="216" spans="1:16">
+      <c r="A216" s="5"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
-      <c r="J216" s="11"/>
+      <c r="J216" s="5"/>
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
       <c r="M216" s="1"/>
@@ -4726,17 +4755,17 @@
       <c r="O216" s="1"/>
       <c r="P216" s="1"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A217" s="11"/>
-      <c r="B217" s="11"/>
-      <c r="C217" s="11"/>
-      <c r="D217" s="11"/>
-      <c r="E217" s="11"/>
+    <row r="217" spans="1:16">
+      <c r="A217" s="5"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
-      <c r="J217" s="11"/>
+      <c r="J217" s="5"/>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
@@ -4744,17 +4773,17 @@
       <c r="O217" s="1"/>
       <c r="P217" s="1"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A218" s="11"/>
-      <c r="B218" s="11"/>
-      <c r="C218" s="11"/>
-      <c r="D218" s="11"/>
-      <c r="E218" s="11"/>
+    <row r="218" spans="1:16">
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
-      <c r="J218" s="11"/>
+      <c r="J218" s="5"/>
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
       <c r="M218" s="1"/>
@@ -4762,17 +4791,17 @@
       <c r="O218" s="1"/>
       <c r="P218" s="1"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A219" s="11"/>
-      <c r="B219" s="11"/>
-      <c r="C219" s="11"/>
-      <c r="D219" s="11"/>
-      <c r="E219" s="11"/>
+    <row r="219" spans="1:16">
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
-      <c r="J219" s="11"/>
+      <c r="J219" s="5"/>
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
       <c r="M219" s="1"/>
@@ -4780,17 +4809,17 @@
       <c r="O219" s="1"/>
       <c r="P219" s="1"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A220" s="11"/>
-      <c r="B220" s="11"/>
-      <c r="C220" s="11"/>
-      <c r="D220" s="11"/>
-      <c r="E220" s="11"/>
+    <row r="220" spans="1:16">
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
-      <c r="J220" s="11"/>
+      <c r="J220" s="5"/>
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
       <c r="M220" s="1"/>
@@ -4798,17 +4827,17 @@
       <c r="O220" s="1"/>
       <c r="P220" s="1"/>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A221" s="11"/>
-      <c r="B221" s="11"/>
-      <c r="C221" s="11"/>
-      <c r="D221" s="11"/>
-      <c r="E221" s="11"/>
+    <row r="221" spans="1:16">
+      <c r="A221" s="5"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
-      <c r="J221" s="11"/>
+      <c r="J221" s="5"/>
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
@@ -4816,17 +4845,17 @@
       <c r="O221" s="1"/>
       <c r="P221" s="1"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A222" s="11"/>
-      <c r="B222" s="11"/>
-      <c r="C222" s="11"/>
-      <c r="D222" s="11"/>
-      <c r="E222" s="11"/>
+    <row r="222" spans="1:16">
+      <c r="A222" s="5"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
-      <c r="J222" s="11"/>
+      <c r="J222" s="5"/>
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
       <c r="M222" s="1"/>
@@ -4834,17 +4863,17 @@
       <c r="O222" s="1"/>
       <c r="P222" s="1"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A223" s="11"/>
-      <c r="B223" s="11"/>
-      <c r="C223" s="11"/>
-      <c r="D223" s="11"/>
-      <c r="E223" s="11"/>
+    <row r="223" spans="1:16">
+      <c r="A223" s="5"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
-      <c r="J223" s="11"/>
+      <c r="J223" s="5"/>
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
       <c r="M223" s="1"/>
@@ -4852,463 +4881,319 @@
       <c r="O223" s="1"/>
       <c r="P223" s="1"/>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A224" s="11"/>
-      <c r="B224" s="11"/>
-      <c r="C224" s="11"/>
-      <c r="D224" s="11"/>
-      <c r="E224" s="11"/>
-      <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
-      <c r="H224" s="1"/>
-      <c r="I224" s="1"/>
-      <c r="J224" s="11"/>
-      <c r="K224" s="1"/>
-      <c r="L224" s="1"/>
-      <c r="M224" s="1"/>
-      <c r="N224" s="1"/>
-      <c r="O224" s="1"/>
-      <c r="P224" s="1"/>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A225" s="11"/>
-      <c r="B225" s="11"/>
-      <c r="C225" s="11"/>
-      <c r="D225" s="11"/>
-      <c r="E225" s="11"/>
-      <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
-      <c r="H225" s="1"/>
-      <c r="I225" s="1"/>
-      <c r="J225" s="11"/>
-      <c r="K225" s="1"/>
-      <c r="L225" s="1"/>
-      <c r="M225" s="1"/>
-      <c r="N225" s="1"/>
-      <c r="O225" s="1"/>
-      <c r="P225" s="1"/>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A226" s="11"/>
-      <c r="B226" s="11"/>
-      <c r="C226" s="11"/>
-      <c r="D226" s="11"/>
-      <c r="E226" s="11"/>
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
-      <c r="H226" s="1"/>
-      <c r="I226" s="1"/>
-      <c r="J226" s="11"/>
-      <c r="K226" s="1"/>
-      <c r="L226" s="1"/>
-      <c r="M226" s="1"/>
-      <c r="N226" s="1"/>
-      <c r="O226" s="1"/>
-      <c r="P226" s="1"/>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A227" s="11"/>
-      <c r="B227" s="11"/>
-      <c r="C227" s="11"/>
-      <c r="D227" s="11"/>
-      <c r="E227" s="11"/>
-      <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
-      <c r="H227" s="1"/>
-      <c r="I227" s="1"/>
-      <c r="J227" s="11"/>
-      <c r="K227" s="1"/>
-      <c r="L227" s="1"/>
-      <c r="M227" s="1"/>
-      <c r="N227" s="1"/>
-      <c r="O227" s="1"/>
-      <c r="P227" s="1"/>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A228" s="11"/>
-      <c r="B228" s="11"/>
-      <c r="C228" s="11"/>
-      <c r="D228" s="11"/>
-      <c r="E228" s="11"/>
-      <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
-      <c r="H228" s="1"/>
-      <c r="I228" s="1"/>
-      <c r="J228" s="11"/>
-      <c r="K228" s="1"/>
-      <c r="L228" s="1"/>
-      <c r="M228" s="1"/>
-      <c r="N228" s="1"/>
-      <c r="O228" s="1"/>
-      <c r="P228" s="1"/>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A229" s="11"/>
-      <c r="B229" s="11"/>
-      <c r="C229" s="11"/>
-      <c r="D229" s="11"/>
-      <c r="E229" s="11"/>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
-      <c r="H229" s="1"/>
-      <c r="I229" s="1"/>
-      <c r="J229" s="11"/>
-      <c r="K229" s="1"/>
-      <c r="L229" s="1"/>
-      <c r="M229" s="1"/>
-      <c r="N229" s="1"/>
-      <c r="O229" s="1"/>
-      <c r="P229" s="1"/>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A230" s="11"/>
-      <c r="B230" s="11"/>
-      <c r="C230" s="11"/>
-      <c r="D230" s="11"/>
-      <c r="E230" s="11"/>
-      <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
-      <c r="H230" s="1"/>
-      <c r="I230" s="1"/>
-      <c r="J230" s="11"/>
-      <c r="K230" s="1"/>
-      <c r="L230" s="1"/>
-      <c r="M230" s="1"/>
-      <c r="N230" s="1"/>
-      <c r="O230" s="1"/>
-      <c r="P230" s="1"/>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A231" s="11"/>
-      <c r="B231" s="11"/>
-      <c r="C231" s="11"/>
-      <c r="D231" s="11"/>
-      <c r="E231" s="11"/>
-      <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
-      <c r="H231" s="1"/>
-      <c r="I231" s="1"/>
-      <c r="J231" s="11"/>
-      <c r="K231" s="1"/>
-      <c r="L231" s="1"/>
-      <c r="M231" s="1"/>
-      <c r="N231" s="1"/>
-      <c r="O231" s="1"/>
-      <c r="P231" s="1"/>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A232" s="2"/>
-      <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
-      <c r="D232" s="4"/>
-      <c r="E232" s="4"/>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A233" s="2"/>
-      <c r="B233" s="3"/>
-      <c r="C233" s="3"/>
-      <c r="D233" s="4"/>
-      <c r="E233" s="4"/>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A234" s="2"/>
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="4"/>
-      <c r="E234" s="4"/>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A235" s="2"/>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
-      <c r="D235" s="4"/>
-      <c r="E235" s="4"/>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A236" s="2"/>
-      <c r="B236" s="3"/>
-      <c r="C236" s="3"/>
-      <c r="D236" s="4"/>
-      <c r="E236" s="4"/>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A237" s="2"/>
-      <c r="B237" s="3"/>
-      <c r="C237" s="3"/>
-      <c r="D237" s="4"/>
-      <c r="E237" s="4"/>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A238" s="2"/>
-      <c r="B238" s="3"/>
-      <c r="C238" s="3"/>
-      <c r="D238" s="4"/>
-      <c r="E238" s="4"/>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16">
+      <c r="A224" s="2"/>
+      <c r="B224" s="3"/>
+      <c r="C224" s="3"/>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4"/>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="4"/>
+      <c r="E225" s="4"/>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
+      <c r="D226" s="4"/>
+      <c r="E226" s="4"/>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="4"/>
+      <c r="E227" s="4"/>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="4"/>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="4"/>
+      <c r="E229" s="4"/>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
-      <c r="C285" s="1"/>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
-      <c r="C286" s="1"/>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
-      <c r="C287" s="1"/>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
-      <c r="C288" s="1"/>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="1"/>
-      <c r="B289" s="1"/>
-      <c r="C289" s="1"/>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="1"/>
-      <c r="B290" s="1"/>
-      <c r="C290" s="1"/>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
-      <c r="C291" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/P0052/09_FICHAS/N3-FD-General.xlsx
+++ b/P0052/09_FICHAS/N3-FD-General.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0052/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="11_7E4E55BF84DCCEE3ED7FF6F99031F45BFA722949" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62E1B1F5-121B-49C8-8A3A-BE9324DA7C2E}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="11_7E4E55BF84DCCEE3ED7FF6F99031F45BFA722949" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23E84DEE-E6E5-45E3-9347-891D892D3F57}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="255" windowWidth="10050" windowHeight="7005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -348,7 +348,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,7 +688,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -707,7 +706,7 @@
     <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="9" customFormat="1" ht="29.25">
+    <row r="1" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -757,7 +756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -807,7 +806,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -857,7 +856,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -879,7 +878,7 @@
       <c r="G4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="6" t="s">
         <v>43</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -907,7 +906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -957,7 +956,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -975,7 +974,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -993,7 +992,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1011,7 +1010,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1029,7 +1028,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1047,7 +1046,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1065,7 +1064,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1083,7 +1082,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1101,7 +1100,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1119,7 +1118,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1137,7 +1136,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1155,7 +1154,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1173,7 +1172,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1191,7 +1190,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1209,7 +1208,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1227,7 +1226,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1245,7 +1244,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1263,7 +1262,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1281,7 +1280,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1299,7 +1298,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1317,7 +1316,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1335,7 +1334,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1353,7 +1352,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1371,7 +1370,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1389,7 +1388,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1407,7 +1406,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1425,7 +1424,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1443,7 +1442,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1461,7 +1460,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1479,7 +1478,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1497,7 +1496,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1515,7 +1514,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1533,7 +1532,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1551,7 +1550,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1569,7 +1568,7 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1587,7 +1586,7 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1605,7 +1604,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1623,7 +1622,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1641,7 +1640,7 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1659,7 +1658,7 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1677,7 +1676,7 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1695,7 +1694,7 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1713,7 +1712,7 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1731,7 +1730,7 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1749,7 +1748,7 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1767,7 +1766,7 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1785,7 +1784,7 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -1803,7 +1802,7 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1821,7 +1820,7 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -1839,7 +1838,7 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -1857,7 +1856,7 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1875,7 +1874,7 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1893,7 +1892,7 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -1911,7 +1910,7 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -1929,7 +1928,7 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -1947,7 +1946,7 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -1965,7 +1964,7 @@
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -1983,7 +1982,7 @@
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2001,7 +2000,7 @@
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2019,7 +2018,7 @@
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2037,7 +2036,7 @@
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2055,7 +2054,7 @@
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2073,7 +2072,7 @@
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2091,7 +2090,7 @@
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2109,7 +2108,7 @@
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2127,7 +2126,7 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2145,7 +2144,7 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2163,7 +2162,7 @@
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -2181,7 +2180,7 @@
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -2199,7 +2198,7 @@
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -2217,7 +2216,7 @@
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -2235,7 +2234,7 @@
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -2253,7 +2252,7 @@
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -2271,7 +2270,7 @@
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2289,7 +2288,7 @@
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2307,7 +2306,7 @@
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2325,7 +2324,7 @@
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2343,7 +2342,7 @@
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2361,7 +2360,7 @@
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2379,7 +2378,7 @@
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2397,7 +2396,7 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2415,7 +2414,7 @@
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -2433,7 +2432,7 @@
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -2451,7 +2450,7 @@
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -2469,7 +2468,7 @@
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -2487,7 +2486,7 @@
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -2505,7 +2504,7 @@
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -2523,7 +2522,7 @@
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -2541,7 +2540,7 @@
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -2559,7 +2558,7 @@
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -2577,7 +2576,7 @@
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -2595,7 +2594,7 @@
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -2613,7 +2612,7 @@
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -2631,7 +2630,7 @@
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -2649,7 +2648,7 @@
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -2667,7 +2666,7 @@
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -2685,7 +2684,7 @@
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -2703,7 +2702,7 @@
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -2721,7 +2720,7 @@
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -2739,7 +2738,7 @@
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -2757,7 +2756,7 @@
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -2775,7 +2774,7 @@
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -2793,7 +2792,7 @@
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -2811,7 +2810,7 @@
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -2829,7 +2828,7 @@
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -2847,7 +2846,7 @@
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -2865,7 +2864,7 @@
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -2883,7 +2882,7 @@
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -2901,7 +2900,7 @@
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -2919,7 +2918,7 @@
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -2937,7 +2936,7 @@
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -2955,7 +2954,7 @@
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -2973,7 +2972,7 @@
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -2991,7 +2990,7 @@
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -3009,7 +3008,7 @@
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3027,7 +3026,7 @@
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3045,7 +3044,7 @@
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -3063,7 +3062,7 @@
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -3081,7 +3080,7 @@
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -3099,7 +3098,7 @@
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -3117,7 +3116,7 @@
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -3135,7 +3134,7 @@
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -3153,7 +3152,7 @@
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -3171,7 +3170,7 @@
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -3189,7 +3188,7 @@
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -3207,7 +3206,7 @@
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -3225,7 +3224,7 @@
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -3243,7 +3242,7 @@
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -3261,7 +3260,7 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -3279,7 +3278,7 @@
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -3297,7 +3296,7 @@
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -3315,7 +3314,7 @@
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -3333,7 +3332,7 @@
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -3351,7 +3350,7 @@
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -3369,7 +3368,7 @@
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -3387,7 +3386,7 @@
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -3405,7 +3404,7 @@
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -3423,7 +3422,7 @@
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -3441,7 +3440,7 @@
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -3459,7 +3458,7 @@
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -3477,7 +3476,7 @@
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -3495,7 +3494,7 @@
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -3513,7 +3512,7 @@
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -3531,7 +3530,7 @@
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -3549,7 +3548,7 @@
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -3567,7 +3566,7 @@
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -3585,7 +3584,7 @@
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -3603,7 +3602,7 @@
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -3621,7 +3620,7 @@
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -3639,7 +3638,7 @@
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -3657,7 +3656,7 @@
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -3675,7 +3674,7 @@
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -3693,7 +3692,7 @@
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -3711,7 +3710,7 @@
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -3729,7 +3728,7 @@
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -3747,7 +3746,7 @@
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -3765,7 +3764,7 @@
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -3783,7 +3782,7 @@
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -3801,7 +3800,7 @@
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -3819,7 +3818,7 @@
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -3837,7 +3836,7 @@
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -3855,7 +3854,7 @@
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -3873,7 +3872,7 @@
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -3891,7 +3890,7 @@
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -3909,7 +3908,7 @@
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -3927,7 +3926,7 @@
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -3945,7 +3944,7 @@
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -3963,7 +3962,7 @@
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -3981,7 +3980,7 @@
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -3999,7 +3998,7 @@
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -4017,7 +4016,7 @@
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -4035,7 +4034,7 @@
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -4053,7 +4052,7 @@
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -4071,7 +4070,7 @@
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -4089,7 +4088,7 @@
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -4107,7 +4106,7 @@
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -4125,7 +4124,7 @@
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -4143,7 +4142,7 @@
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -4161,7 +4160,7 @@
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -4179,7 +4178,7 @@
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -4197,7 +4196,7 @@
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -4215,7 +4214,7 @@
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -4233,7 +4232,7 @@
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -4251,7 +4250,7 @@
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -4269,7 +4268,7 @@
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -4287,7 +4286,7 @@
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -4305,7 +4304,7 @@
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -4323,7 +4322,7 @@
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -4341,7 +4340,7 @@
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -4359,7 +4358,7 @@
       <c r="O194" s="1"/>
       <c r="P194" s="1"/>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -4377,7 +4376,7 @@
       <c r="O195" s="1"/>
       <c r="P195" s="1"/>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -4395,7 +4394,7 @@
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -4413,7 +4412,7 @@
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -4431,7 +4430,7 @@
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -4449,7 +4448,7 @@
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -4467,7 +4466,7 @@
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -4485,7 +4484,7 @@
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -4503,7 +4502,7 @@
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -4521,7 +4520,7 @@
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -4539,7 +4538,7 @@
       <c r="O204" s="1"/>
       <c r="P204" s="1"/>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -4557,7 +4556,7 @@
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -4575,7 +4574,7 @@
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -4593,7 +4592,7 @@
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
     </row>
-    <row r="208" spans="1:16">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -4611,7 +4610,7 @@
       <c r="O208" s="1"/>
       <c r="P208" s="1"/>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -4629,7 +4628,7 @@
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -4647,7 +4646,7 @@
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -4665,7 +4664,7 @@
       <c r="O211" s="1"/>
       <c r="P211" s="1"/>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -4683,7 +4682,7 @@
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -4701,7 +4700,7 @@
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -4719,7 +4718,7 @@
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -4737,7 +4736,7 @@
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -4755,7 +4754,7 @@
       <c r="O216" s="1"/>
       <c r="P216" s="1"/>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -4773,7 +4772,7 @@
       <c r="O217" s="1"/>
       <c r="P217" s="1"/>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -4791,7 +4790,7 @@
       <c r="O218" s="1"/>
       <c r="P218" s="1"/>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -4809,7 +4808,7 @@
       <c r="O219" s="1"/>
       <c r="P219" s="1"/>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -4827,7 +4826,7 @@
       <c r="O220" s="1"/>
       <c r="P220" s="1"/>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -4845,7 +4844,7 @@
       <c r="O221" s="1"/>
       <c r="P221" s="1"/>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -4863,7 +4862,7 @@
       <c r="O222" s="1"/>
       <c r="P222" s="1"/>
     </row>
-    <row r="223" spans="1:16">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -4881,316 +4880,316 @@
       <c r="O223" s="1"/>
       <c r="P223" s="1"/>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
